--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Itgb2-Thy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="H2">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="I2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="J2">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.389838666666667</v>
+        <v>6.226703000000001</v>
       </c>
       <c r="N2">
-        <v>10.169516</v>
+        <v>18.680109</v>
       </c>
       <c r="O2">
-        <v>0.03393930434450847</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="P2">
-        <v>0.03393930434450847</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="Q2">
-        <v>0.9585729284288892</v>
+        <v>1.136549720751667</v>
       </c>
       <c r="R2">
-        <v>8.627156355860002</v>
+        <v>10.228947486765</v>
       </c>
       <c r="S2">
-        <v>3.435903170968462E-05</v>
+        <v>6.18197395418248E-05</v>
       </c>
       <c r="T2">
-        <v>3.435903170968462E-05</v>
+        <v>6.181973954182482E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="H3">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="I3">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="J3">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>253.51133</v>
       </c>
       <c r="O3">
-        <v>0.8460577852132902</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="P3">
-        <v>0.8460577852132902</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="Q3">
-        <v>23.89583712617222</v>
+        <v>15.42433351533889</v>
       </c>
       <c r="R3">
-        <v>215.06253413555</v>
+        <v>138.81900163805</v>
       </c>
       <c r="S3">
-        <v>0.0008565209815525459</v>
+        <v>0.0008389675023578074</v>
       </c>
       <c r="T3">
-        <v>0.0008565209815525459</v>
+        <v>0.0008389675023578075</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="H4">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="I4">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="J4">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1070423333333334</v>
+        <v>2.114093666666667</v>
       </c>
       <c r="N4">
-        <v>0.3211270000000001</v>
+        <v>6.342281</v>
       </c>
       <c r="O4">
-        <v>0.001071715407718418</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="P4">
-        <v>0.001071715407718417</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="Q4">
-        <v>0.03026925261611112</v>
+        <v>0.3858819934872222</v>
       </c>
       <c r="R4">
-        <v>0.2724232735450001</v>
+        <v>3.472937941385</v>
       </c>
       <c r="S4">
-        <v>1.084969311797719E-06</v>
+        <v>2.098907236146557E-05</v>
       </c>
       <c r="T4">
-        <v>1.084969311797719E-06</v>
+        <v>2.098907236146557E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2827783333333334</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="H5">
-        <v>0.8483350000000001</v>
+        <v>0.547585</v>
       </c>
       <c r="I5">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="J5">
-        <v>0.00101236699965667</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.878781</v>
+        <v>10.41962533333333</v>
       </c>
       <c r="N5">
-        <v>35.636343</v>
+        <v>31.258876</v>
       </c>
       <c r="O5">
-        <v>0.1189311950344828</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="P5">
-        <v>0.1189311950344828</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="Q5">
-        <v>3.359061893211666</v>
+        <v>1.901876846051111</v>
       </c>
       <c r="R5">
-        <v>30.231557038905</v>
+        <v>17.11689161446</v>
       </c>
       <c r="S5">
-        <v>0.0001204020170826416</v>
+        <v>0.0001034477674991189</v>
       </c>
       <c r="T5">
-        <v>0.0001204020170826416</v>
+        <v>0.0001034477674991189</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.03123033333333333</v>
+        <v>0.1825283333333333</v>
       </c>
       <c r="H6">
-        <v>0.093691</v>
+        <v>0.547585</v>
       </c>
       <c r="I6">
-        <v>0.0001118068646994796</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="J6">
-        <v>0.0001118068646994796</v>
+        <v>0.001028331058213739</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.389838666666667</v>
+        <v>0.3129456666666666</v>
       </c>
       <c r="N6">
-        <v>10.169516</v>
+        <v>0.9388369999999999</v>
       </c>
       <c r="O6">
-        <v>0.03393930434450847</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="P6">
-        <v>0.03393930434450847</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="Q6">
-        <v>0.1058657915062222</v>
+        <v>0.05712145096055554</v>
       </c>
       <c r="R6">
-        <v>0.9527921235560001</v>
+        <v>0.514093058645</v>
       </c>
       <c r="S6">
-        <v>3.794647208840919E-06</v>
+        <v>3.106976453522202E-06</v>
       </c>
       <c r="T6">
-        <v>3.79464720884092E-06</v>
+        <v>3.106976453522203E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -856,10 +856,10 @@
         <v>0.093691</v>
       </c>
       <c r="I7">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="J7">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.50377666666667</v>
+        <v>6.226703000000001</v>
       </c>
       <c r="N7">
-        <v>253.51133</v>
+        <v>18.680109</v>
       </c>
       <c r="O7">
-        <v>0.8460577852132902</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="P7">
-        <v>0.8460577852132902</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="Q7">
-        <v>2.639081113225556</v>
+        <v>0.1944620102576667</v>
       </c>
       <c r="R7">
-        <v>23.75173001903</v>
+        <v>1.750158092319</v>
       </c>
       <c r="S7">
-        <v>9.459506831928374E-05</v>
+        <v>1.057726785323394E-05</v>
       </c>
       <c r="T7">
-        <v>9.459506831928375E-05</v>
+        <v>1.057726785323394E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -918,40 +918,40 @@
         <v>0.093691</v>
       </c>
       <c r="I8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="J8">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1070423333333334</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N8">
-        <v>0.3211270000000001</v>
+        <v>253.51133</v>
       </c>
       <c r="O8">
-        <v>0.001071715407718418</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="P8">
-        <v>0.001071715407718417</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="Q8">
-        <v>0.003342967750777778</v>
+        <v>2.639081113225556</v>
       </c>
       <c r="R8">
-        <v>0.030086709757</v>
+        <v>23.75173001903</v>
       </c>
       <c r="S8">
-        <v>1.198251395871208E-07</v>
+        <v>0.0001435461239139226</v>
       </c>
       <c r="T8">
-        <v>1.198251395871208E-07</v>
+        <v>0.0001435461239139226</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -980,10 +980,10 @@
         <v>0.093691</v>
       </c>
       <c r="I9">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="J9">
-        <v>0.0001118068646994796</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,33 +992,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.878781</v>
+        <v>2.114093666666667</v>
       </c>
       <c r="N9">
-        <v>35.636343</v>
+        <v>6.342281</v>
       </c>
       <c r="O9">
-        <v>0.1189311950344828</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="P9">
-        <v>0.1189311950344828</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="Q9">
-        <v>0.3709782902236666</v>
+        <v>0.06602384990788888</v>
       </c>
       <c r="R9">
-        <v>3.338804612012999</v>
+        <v>0.594214649171</v>
       </c>
       <c r="S9">
-        <v>1.329732403176784E-05</v>
+        <v>3.591199865989884E-06</v>
       </c>
       <c r="T9">
-        <v>1.329732403176784E-05</v>
+        <v>3.591199865989884E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,25 +1027,25 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>133.2267966666667</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="H10">
-        <v>399.68039</v>
+        <v>0.093691</v>
       </c>
       <c r="I10">
-        <v>0.4769616215833458</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="J10">
-        <v>0.4769616215833458</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,33 +1054,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.389838666666667</v>
+        <v>10.41962533333333</v>
       </c>
       <c r="N10">
-        <v>10.169516</v>
+        <v>31.258876</v>
       </c>
       <c r="O10">
-        <v>0.03393930434450847</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="P10">
-        <v>0.03393930434450847</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="Q10">
-        <v>451.6173467768045</v>
+        <v>0.3254083723684444</v>
       </c>
       <c r="R10">
-        <v>4064.55612099124</v>
+        <v>2.928675351316</v>
       </c>
       <c r="S10">
-        <v>0.01618774563556745</v>
+        <v>1.769976311396395E-05</v>
       </c>
       <c r="T10">
-        <v>0.01618774563556745</v>
+        <v>1.769976311396395E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,25 +1089,25 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>133.2267966666667</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="H11">
-        <v>399.68039</v>
+        <v>0.093691</v>
       </c>
       <c r="I11">
-        <v>0.4769616215833458</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="J11">
-        <v>0.4769616215833458</v>
+        <v>0.0001759459539160193</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.50377666666667</v>
+        <v>0.3129456666666666</v>
       </c>
       <c r="N11">
-        <v>253.51133</v>
+        <v>0.9388369999999999</v>
       </c>
       <c r="O11">
-        <v>0.8460577852132902</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="P11">
-        <v>0.8460577852132902</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="Q11">
-        <v>11258.16747153541</v>
+        <v>0.00977339748522222</v>
       </c>
       <c r="R11">
-        <v>101323.5072438187</v>
+        <v>0.08796057736699998</v>
       </c>
       <c r="S11">
-        <v>0.403537093188545</v>
+        <v>5.315991689088427E-07</v>
       </c>
       <c r="T11">
-        <v>0.403537093188545</v>
+        <v>5.315991689088427E-07</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="H12">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="I12">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="J12">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1070423333333334</v>
+        <v>6.226703000000001</v>
       </c>
       <c r="N12">
-        <v>0.3211270000000001</v>
+        <v>18.680109</v>
       </c>
       <c r="O12">
-        <v>0.001071715407718418</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="P12">
-        <v>0.001071715407718417</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="Q12">
-        <v>14.26090717772556</v>
+        <v>642.843460298746</v>
       </c>
       <c r="R12">
-        <v>128.34816459953</v>
+        <v>5785.591142688714</v>
       </c>
       <c r="S12">
-        <v>0.0005111671187412331</v>
+        <v>0.03496583964276655</v>
       </c>
       <c r="T12">
-        <v>0.000511167118741233</v>
+        <v>0.03496583964276655</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>133.2267966666667</v>
+        <v>103.239782</v>
       </c>
       <c r="H13">
-        <v>399.68039</v>
+        <v>309.719346</v>
       </c>
       <c r="I13">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="J13">
-        <v>0.4769616215833458</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,33 +1240,33 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.878781</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N13">
-        <v>35.636343</v>
+        <v>253.51133</v>
       </c>
       <c r="O13">
-        <v>0.1189311950344828</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="P13">
-        <v>0.1189311950344828</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="Q13">
-        <v>1582.571940934863</v>
+        <v>8724.151481243352</v>
       </c>
       <c r="R13">
-        <v>14243.14746841377</v>
+        <v>78517.36333119018</v>
       </c>
       <c r="S13">
-        <v>0.05672561564049209</v>
+        <v>0.4745280936211065</v>
       </c>
       <c r="T13">
-        <v>0.05672561564049209</v>
+        <v>0.4745280936211065</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,25 +1275,25 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.05352499999999999</v>
+        <v>103.239782</v>
       </c>
       <c r="H14">
-        <v>0.160575</v>
+        <v>309.719346</v>
       </c>
       <c r="I14">
-        <v>0.000191623392845833</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="J14">
-        <v>0.000191623392845833</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,60 +1302,60 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.389838666666667</v>
+        <v>2.114093666666667</v>
       </c>
       <c r="N14">
-        <v>10.169516</v>
+        <v>6.342281</v>
       </c>
       <c r="O14">
-        <v>0.03393930434450847</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="P14">
-        <v>0.03393930434450847</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="Q14">
-        <v>0.1814411146333333</v>
+        <v>218.2585692742473</v>
       </c>
       <c r="R14">
-        <v>1.6329700317</v>
+        <v>1964.327123468226</v>
       </c>
       <c r="S14">
-        <v>6.503564649322032E-06</v>
+        <v>0.01187162132808567</v>
       </c>
       <c r="T14">
-        <v>6.503564649322033E-06</v>
+        <v>0.01187162132808567</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.05352499999999999</v>
+        <v>103.239782</v>
       </c>
       <c r="H15">
-        <v>0.160575</v>
+        <v>309.719346</v>
       </c>
       <c r="I15">
-        <v>0.000191623392845833</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="J15">
-        <v>0.000191623392845833</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,33 +1364,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.50377666666667</v>
+        <v>10.41962533333333</v>
       </c>
       <c r="N15">
-        <v>253.51133</v>
+        <v>31.258876</v>
       </c>
       <c r="O15">
-        <v>0.8460577852132902</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="P15">
-        <v>0.8460577852132902</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="Q15">
-        <v>4.523064646083332</v>
+        <v>1075.719847935011</v>
       </c>
       <c r="R15">
-        <v>40.70758181474999</v>
+        <v>9681.478631415095</v>
       </c>
       <c r="S15">
-        <v>0.0001621244633462017</v>
+        <v>0.058511052886743</v>
       </c>
       <c r="T15">
-        <v>0.0001621244633462017</v>
+        <v>0.058511052886743</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.05352499999999999</v>
+        <v>103.239782</v>
       </c>
       <c r="H16">
-        <v>0.160575</v>
+        <v>309.719346</v>
       </c>
       <c r="I16">
-        <v>0.000191623392845833</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="J16">
-        <v>0.000191623392845833</v>
+        <v>0.5816339432625932</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1070423333333334</v>
+        <v>0.3129456666666666</v>
       </c>
       <c r="N16">
-        <v>0.3211270000000001</v>
+        <v>0.9388369999999999</v>
       </c>
       <c r="O16">
-        <v>0.001071715407718418</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="P16">
-        <v>0.001071715407718417</v>
+        <v>0.003021377628056058</v>
       </c>
       <c r="Q16">
-        <v>0.005729440891666666</v>
+        <v>32.30844240451133</v>
       </c>
       <c r="R16">
-        <v>0.051564968025</v>
+        <v>290.775981640602</v>
       </c>
       <c r="S16">
-        <v>2.053657425921584E-07</v>
+        <v>0.001757335783891626</v>
       </c>
       <c r="T16">
-        <v>2.053657425921584E-07</v>
+        <v>0.001757335783891626</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.05352499999999999</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="H17">
-        <v>0.160575</v>
+        <v>0.145582</v>
       </c>
       <c r="I17">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="J17">
-        <v>0.000191623392845833</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,33 +1488,33 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.878781</v>
+        <v>6.226703000000001</v>
       </c>
       <c r="N17">
-        <v>35.636343</v>
+        <v>18.680109</v>
       </c>
       <c r="O17">
-        <v>0.1189311950344828</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="P17">
-        <v>0.1189311950344828</v>
+        <v>0.06011657340118533</v>
       </c>
       <c r="Q17">
-        <v>0.6358117530249998</v>
+        <v>0.3021652920486667</v>
       </c>
       <c r="R17">
-        <v>5.722305777224999</v>
+        <v>2.719487628438</v>
       </c>
       <c r="S17">
-        <v>2.278999910771708E-05</v>
+        <v>1.643551470909163E-05</v>
       </c>
       <c r="T17">
-        <v>2.278999910771709E-05</v>
+        <v>1.643551470909163E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,25 +1523,25 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>145.729604</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="H18">
-        <v>437.188812</v>
+        <v>0.145582</v>
       </c>
       <c r="I18">
-        <v>0.5217225811594521</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="J18">
-        <v>0.5217225811594522</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,33 +1550,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.389838666666667</v>
+        <v>84.50377666666667</v>
       </c>
       <c r="N18">
-        <v>10.169516</v>
+        <v>253.51133</v>
       </c>
       <c r="O18">
-        <v>0.03393930434450847</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="P18">
-        <v>0.03393930434450847</v>
+        <v>0.8158535090976781</v>
       </c>
       <c r="Q18">
-        <v>493.9998465172214</v>
+        <v>4.100742938228889</v>
       </c>
       <c r="R18">
-        <v>4445.998618654992</v>
+        <v>36.90668644406</v>
       </c>
       <c r="S18">
-        <v>0.01770690146537316</v>
+        <v>0.0002230495118168948</v>
       </c>
       <c r="T18">
-        <v>0.01770690146537317</v>
+        <v>0.0002230495118168948</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1585,25 +1585,25 @@
         <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>145.729604</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="H19">
-        <v>437.188812</v>
+        <v>0.145582</v>
       </c>
       <c r="I19">
-        <v>0.5217225811594521</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="J19">
-        <v>0.5217225811594522</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,33 +1612,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>84.50377666666667</v>
+        <v>2.114093666666667</v>
       </c>
       <c r="N19">
-        <v>253.51133</v>
+        <v>6.342281</v>
       </c>
       <c r="O19">
-        <v>0.8460577852132902</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="P19">
-        <v>0.8460577852132902</v>
+        <v>0.02041081244587187</v>
       </c>
       <c r="Q19">
-        <v>12314.70191013777</v>
+        <v>0.1025913280602222</v>
       </c>
       <c r="R19">
-        <v>110832.31719124</v>
+        <v>0.9233219525419999</v>
       </c>
       <c r="S19">
-        <v>0.4414074515115272</v>
+        <v>5.580195097613851E-06</v>
       </c>
       <c r="T19">
-        <v>0.4414074515115272</v>
+        <v>5.580195097613851E-06</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1647,117 +1647,427 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>145.729604</v>
+        <v>0.04852733333333333</v>
       </c>
       <c r="H20">
-        <v>437.188812</v>
+        <v>0.145582</v>
       </c>
       <c r="I20">
-        <v>0.5217225811594521</v>
+        <v>0.0002733940705404138</v>
       </c>
       <c r="J20">
-        <v>0.5217225811594522</v>
+        <v>0.0002733940705404139</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1070423333333334</v>
+        <v>10.41962533333333</v>
       </c>
       <c r="N20">
-        <v>0.3211270000000001</v>
+        <v>31.258876</v>
       </c>
       <c r="O20">
-        <v>0.001071715407718418</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="P20">
-        <v>0.001071715407718417</v>
+        <v>0.1005977274272088</v>
       </c>
       <c r="Q20">
-        <v>15.59923684790267</v>
+        <v>0.5056366317591111</v>
       </c>
       <c r="R20">
-        <v>140.393131631124</v>
+        <v>4.550729685832</v>
       </c>
       <c r="S20">
-        <v>0.0005591381287832074</v>
+        <v>2.750282218843966E-05</v>
       </c>
       <c r="T20">
-        <v>0.0005591381287832074</v>
+        <v>2.750282218843966E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.04852733333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.145582</v>
+      </c>
+      <c r="I21">
+        <v>0.0002733940705404138</v>
+      </c>
+      <c r="J21">
+        <v>0.0002733940705404139</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.3129456666666666</v>
+      </c>
+      <c r="N21">
+        <v>0.9388369999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.003021377628056058</v>
+      </c>
+      <c r="P21">
+        <v>0.003021377628056058</v>
+      </c>
+      <c r="Q21">
+        <v>0.01518641868155555</v>
+      </c>
+      <c r="R21">
+        <v>0.136677768134</v>
+      </c>
+      <c r="S21">
+        <v>8.260267283739862E-07</v>
+      </c>
+      <c r="T21">
+        <v>8.260267283739863E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="H22">
+        <v>221.992543</v>
+      </c>
+      <c r="I22">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="J22">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.226703000000001</v>
+      </c>
+      <c r="N22">
+        <v>18.680109</v>
+      </c>
+      <c r="O22">
+        <v>0.06011657340118533</v>
+      </c>
+      <c r="P22">
+        <v>0.06011657340118533</v>
+      </c>
+      <c r="Q22">
+        <v>460.7605444919097</v>
+      </c>
+      <c r="R22">
+        <v>4146.844900427188</v>
+      </c>
+      <c r="S22">
+        <v>0.02506190123631463</v>
+      </c>
+      <c r="T22">
+        <v>0.02506190123631463</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="H23">
+        <v>221.992543</v>
+      </c>
+      <c r="I23">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="J23">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>84.50377666666667</v>
+      </c>
+      <c r="N23">
+        <v>253.51133</v>
+      </c>
+      <c r="O23">
+        <v>0.8158535090976781</v>
+      </c>
+      <c r="P23">
+        <v>0.8158535090976781</v>
+      </c>
+      <c r="Q23">
+        <v>6253.069425112466</v>
+      </c>
+      <c r="R23">
+        <v>56277.62482601219</v>
+      </c>
+      <c r="S23">
+        <v>0.340119852338483</v>
+      </c>
+      <c r="T23">
+        <v>0.340119852338483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="H24">
+        <v>221.992543</v>
+      </c>
+      <c r="I24">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="J24">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.114093666666667</v>
+      </c>
+      <c r="N24">
+        <v>6.342281</v>
+      </c>
+      <c r="O24">
+        <v>0.02041081244587187</v>
+      </c>
+      <c r="P24">
+        <v>0.02041081244587187</v>
+      </c>
+      <c r="Q24">
+        <v>156.4376764011759</v>
+      </c>
+      <c r="R24">
+        <v>1407.939087610583</v>
+      </c>
+      <c r="S24">
+        <v>0.00850903065046113</v>
+      </c>
+      <c r="T24">
+        <v>0.008509030650461128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>145.729604</v>
-      </c>
-      <c r="H21">
-        <v>437.188812</v>
-      </c>
-      <c r="I21">
-        <v>0.5217225811594521</v>
-      </c>
-      <c r="J21">
-        <v>0.5217225811594522</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>11.878781</v>
-      </c>
-      <c r="N21">
-        <v>35.636343</v>
-      </c>
-      <c r="O21">
-        <v>0.1189311950344828</v>
-      </c>
-      <c r="P21">
-        <v>0.1189311950344828</v>
-      </c>
-      <c r="Q21">
-        <v>1731.090051132724</v>
-      </c>
-      <c r="R21">
-        <v>15579.81046019451</v>
-      </c>
-      <c r="S21">
-        <v>0.06204909005376859</v>
-      </c>
-      <c r="T21">
-        <v>0.0620490900537686</v>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="H25">
+        <v>221.992543</v>
+      </c>
+      <c r="I25">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="J25">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>10.41962533333333</v>
+      </c>
+      <c r="N25">
+        <v>31.258876</v>
+      </c>
+      <c r="O25">
+        <v>0.1005977274272088</v>
+      </c>
+      <c r="P25">
+        <v>0.1005977274272088</v>
+      </c>
+      <c r="Q25">
+        <v>771.0263749512966</v>
+      </c>
+      <c r="R25">
+        <v>6939.237374561669</v>
+      </c>
+      <c r="S25">
+        <v>0.04193802418766431</v>
+      </c>
+      <c r="T25">
+        <v>0.04193802418766431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>73.99751433333334</v>
+      </c>
+      <c r="H26">
+        <v>221.992543</v>
+      </c>
+      <c r="I26">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="J26">
+        <v>0.4168883856547366</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.3129456666666666</v>
+      </c>
+      <c r="N26">
+        <v>0.9388369999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.003021377628056058</v>
+      </c>
+      <c r="P26">
+        <v>0.003021377628056058</v>
+      </c>
+      <c r="Q26">
+        <v>23.15720145472122</v>
+      </c>
+      <c r="R26">
+        <v>208.414813092491</v>
+      </c>
+      <c r="S26">
+        <v>0.001259577241813627</v>
+      </c>
+      <c r="T26">
+        <v>0.001259577241813627</v>
       </c>
     </row>
   </sheetData>
